--- a/documentation/ARM_Bare_Metal_Multicore_Boot.xlsx
+++ b/documentation/ARM_Bare_Metal_Multicore_Boot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QEMU_Cortex-A72\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E776F0-45C8-4EE5-ADC0-AEEFEBABB4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D77F02-871F-41EF-BB1C-13924F972289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core_Registers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="344">
   <si>
     <t>ARM Cortex-A72/A76 Core Register Map</t>
   </si>
@@ -998,13 +998,106 @@
   </si>
   <si>
     <t xml:space="preserve">Last updated : ipc module </t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Responsibilities in Protocol Bridge</t>
+  </si>
+  <si>
+    <t>System Master / Watchdog</t>
+  </si>
+  <si>
+    <t>- Boots system, initializes memory &amp; locks</t>
+  </si>
+  <si>
+    <t>- Wakes up Cores 1, 2, 3 via PSCI</t>
+  </si>
+  <si>
+    <t>- Monitors system health (pings other cores)</t>
+  </si>
+  <si>
+    <t>- Handles fatal error reporting</t>
+  </si>
+  <si>
+    <t>UART Hardware Handler</t>
+  </si>
+  <si>
+    <t>- Writes raw bytes into the shared Ring Buffer</t>
+  </si>
+  <si>
+    <t>- Sends outgoing UART traffic (from Protocol Engine)</t>
+  </si>
+  <si>
+    <t>Protocol Engine (Parser)</t>
+  </si>
+  <si>
+    <t>- Reads raw byte stream from the Ring Buffer</t>
+  </si>
+  <si>
+    <t>- Runs the State Machine to find packet start/end</t>
+  </si>
+  <si>
+    <t>- Validates checksums/CRCs</t>
+  </si>
+  <si>
+    <t>- Converts the packet format to the target protocol</t>
+  </si>
+  <si>
+    <t>Bus Master (SPI/I2C)</t>
+  </si>
+  <si>
+    <t>- Receives formatted payloads from Core 2</t>
+  </si>
+  <si>
+    <t>- Drives the output bus (SPI/I2C) to talk to sensors</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> raw bytes continuously from PL011 UART</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Will use software stubs in QEMU, real hardware on RP5)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,8 +1162,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,8 +1208,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1139,11 +1258,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1163,19 +1334,49 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1481,7 +1682,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,7 +1860,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2096,7 +2297,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2430,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398BE10A-21D5-4E21-9C5D-E21342F18B31}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,21 +2649,21 @@
       <c r="A1" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2501,7 +2702,7 @@
       <c r="B7" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>154</v>
       </c>
       <c r="D7" t="s">
@@ -2521,7 +2722,7 @@
       <c r="B8" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>315</v>
       </c>
       <c r="D8" t="s">
@@ -2541,7 +2742,7 @@
       <c r="B9" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>312</v>
       </c>
       <c r="D9" t="s">
@@ -2561,7 +2762,7 @@
       <c r="B10" t="s">
         <v>309</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>308</v>
       </c>
       <c r="D10" t="s">
@@ -2581,7 +2782,7 @@
       <c r="B11" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>303</v>
       </c>
       <c r="D11" t="s">
@@ -2601,7 +2802,7 @@
       <c r="B12" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>299</v>
       </c>
       <c r="D12" t="s">
@@ -2621,7 +2822,7 @@
       <c r="B13" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>296</v>
       </c>
       <c r="D13" t="s">
@@ -2641,7 +2842,7 @@
       <c r="B14" t="s">
         <v>292</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>294</v>
       </c>
       <c r="D14" t="s">
@@ -2661,7 +2862,7 @@
       <c r="B15" t="s">
         <v>292</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>291</v>
       </c>
       <c r="D15" t="s">
@@ -2681,7 +2882,7 @@
       <c r="B16" t="s">
         <v>288</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>287</v>
       </c>
       <c r="D16" t="s">
@@ -2701,7 +2902,7 @@
       <c r="B17" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>284</v>
       </c>
       <c r="D17" t="s">
@@ -2721,7 +2922,7 @@
       <c r="B18" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>172</v>
       </c>
       <c r="D18" t="s">
@@ -2741,7 +2942,7 @@
       <c r="B19" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>177</v>
       </c>
       <c r="D19" t="s">
@@ -2761,7 +2962,7 @@
       <c r="B20" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="11" t="s">
         <v>181</v>
       </c>
       <c r="D20" t="s">
@@ -2781,7 +2982,7 @@
       <c r="B21" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>185</v>
       </c>
       <c r="D21" t="s">
@@ -2801,7 +3002,7 @@
       <c r="B22" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="11" t="s">
         <v>192</v>
       </c>
       <c r="D22" t="s">
@@ -2875,19 +3076,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -3045,8 +3248,145 @@
         <v>91</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
